--- a/biology/Botanique/Gala_(pomme)/Gala_(pomme).xlsx
+++ b/biology/Botanique/Gala_(pomme)/Gala_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gala est une pomme rouge issue du croisement entre la Kidd's Orange Red et la Golden Delicious. La variété a été créée en Nouvelle-Zélande dans les années 1930 par le pépiniériste J.H. Kidd. En France, c'est la deuxième pomme la plus cultivée (après la Golden Delicious) puisque les Galas et leurs variantes représentent près de 17 % de la production nationale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pommes Gala sont plutôt petites. Rouge orangé à rayures verticales, elles résistent bien aux chocs bien qu'elles aient une peau très fine. La Gala est une pomme très sucrée, faiblement acide avec une petite pointe d’amertume ; ferme et juteuse, très croquante. Certains lui trouvent des arômes de banane et de poire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pommes Gala sont plutôt petites. Rouge orangé à rayures verticales, elles résistent bien aux chocs bien qu'elles aient une peau très fine. La Gala est une pomme très sucrée, faiblement acide avec une petite pointe d’amertume ; ferme et juteuse, très croquante. Certains lui trouvent des arômes de banane et de poire.
 Le code PLU de la variété est 4173.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antioxydants pour la Gala crue avec sa pelure : 2 828 µmol TE/100g [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antioxydants pour la Gala crue avec sa pelure : 2 828 µmol TE/100g .
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Sous-variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses mutantes de Gala souvent sélectionnées pour leur couleur plus rouge comme la populaire Royal Gala déposée par Ten Hove en 1977 et qu'il a rebaptisée Tenroy en 1985.
 </t>
@@ -605,7 +623,9 @@
           <t>Descendantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le croisement Tenroy et Florina a donné une pomme plus résistante : la Delfloga, plus connue sous le nom commercial Delbardivine.
 Le croisement Gala et Florina a donné la Galarina (INRA).
@@ -638,7 +658,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pommiers Gala sont des arbres moyennement vigoureux.
 Avec une bonne arcure, ils produisent de nombreux bourgeons actifs et nécessitent d'importantes interventions d'extinction si on veut éviter de n'avoir des fruits qu'une année sur deux (alternance).
@@ -674,7 +696,9 @@
           <t>Mode de préparation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellente crue, elle se consomme aussi en quartiers poêlés ou en beignets, et se cuisine au gril en lamelles, au micro-ondes, ou rôtie sans la peau.
 </t>
